--- a/order_test_TDM.xlsx
+++ b/order_test_TDM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivya.TRANSITUSNEXGEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD067D9-5780-4B28-8871-F6FBD06FF4A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F6B1FE-0B05-4F7A-ABC1-CBDEAD15B2E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>UserName</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Draft</t>
+  </si>
+  <si>
+    <t>6/19/2019</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +593,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -607,7 +610,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>17</v>

--- a/order_test_TDM.xlsx
+++ b/order_test_TDM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivya.TRANSITUSNEXGEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F6B1FE-0B05-4F7A-ABC1-CBDEAD15B2E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2298AAE8-138F-4415-B9E7-3B1CF6CF1752}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>UserName</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Draft</t>
-  </si>
-  <si>
-    <t>6/19/2019</t>
   </si>
 </sst>
 </file>
@@ -506,7 +503,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +590,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -610,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>17</v>
